--- a/src/test/resources/ex.xlsx
+++ b/src/test/resources/ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\SDET34L1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54A08E22-BBF2-46EA-B5D6-B8B1204669C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64EF5204-532C-4636-9257-DF215515EDF5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14232" windowHeight="4548" firstSheet="2" activeTab="3" xr2:uid="{F5088368-1BAD-46D5-AFC3-05EB9B24A2C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14232" windowHeight="4548" firstSheet="2" activeTab="5" xr2:uid="{F5088368-1BAD-46D5-AFC3-05EB9B24A2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleExcel" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Organization_name</t>
-  </si>
-  <si>
-    <t>Qspiders</t>
   </si>
   <si>
     <t>stepno</t>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>abcfghjh</t>
+  </si>
+  <si>
+    <t>TYSS</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E528BE28-9673-4EC9-9A4F-DA75926B90CD}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -801,10 +801,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B114C39D-60D6-455F-95CA-1128379A15A3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -896,58 +896,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -974,28 +974,28 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1029,31 +1029,31 @@
   <sheetData>
     <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.3">
@@ -1061,19 +1061,19 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
         <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.3">
@@ -1081,19 +1081,19 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
@@ -1101,19 +1101,19 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
@@ -1121,19 +1121,19 @@
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
@@ -1141,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
@@ -1155,41 +1155,41 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="4:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1197,19 +1197,19 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
       <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
         <v>35</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.3">
@@ -1217,19 +1217,19 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.3">
@@ -1237,19 +1237,19 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="4:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1257,19 +1257,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.3">
@@ -1277,19 +1277,19 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
         <v>31</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s">
-        <v>32</v>
-      </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.3">
@@ -1297,19 +1297,19 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
